--- a/data/trans_dic/P39A2_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Dificultad-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7976596158836922</v>
+        <v>0.7976596158836918</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.7448470169927083</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7505058381438147</v>
+        <v>0.755316862638806</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.709955139350685</v>
+        <v>0.7078916319337853</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7391156597823726</v>
+        <v>0.7418204531052079</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8359115008445267</v>
+        <v>0.8422419177821849</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7786047208592259</v>
+        <v>0.7773791278259837</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7942283232736965</v>
+        <v>0.7938692195345873</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.786352837407876</v>
+        <v>0.7847287355975311</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7326107361072089</v>
+        <v>0.7319139599628507</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7666105308213668</v>
+        <v>0.7652200358352018</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8421891747112125</v>
+        <v>0.8409083372233003</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7807471027488103</v>
+        <v>0.7796000223764298</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8041464596893073</v>
+        <v>0.8022779346647502</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.7642749544789039</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7125490792170202</v>
+        <v>0.7125490792170204</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7387101111817449</v>
+        <v>0.7387101111817448</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.734892897294451</v>
+        <v>0.7357887984905251</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6878735242831515</v>
+        <v>0.6875844997718259</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.717954297725068</v>
+        <v>0.7198616184495868</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7917116764254452</v>
+        <v>0.7911737544523866</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7368115463957928</v>
+        <v>0.7372658534163088</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7569188563813615</v>
+        <v>0.7573517665853404</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4767359843326566</v>
+        <v>0.4841302309179149</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4488469020123173</v>
+        <v>0.4480765453875066</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4770849761582712</v>
+        <v>0.4745565683956525</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.552203399504001</v>
+        <v>0.5555283993463628</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5120902003887426</v>
+        <v>0.5091688106755624</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5245776552678169</v>
+        <v>0.5245285004065964</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.6729082201024252</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6914416887369544</v>
+        <v>0.6914416887369546</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6932711542878631</v>
+        <v>0.6934812307078312</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6595043809610949</v>
+        <v>0.6588465081841931</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.679723642821669</v>
+        <v>0.6801867179512224</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7272273802423332</v>
+        <v>0.7292194468782002</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6874524436950556</v>
+        <v>0.687735746106676</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7018326019555309</v>
+        <v>0.7033966221859619</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>287138</v>
+        <v>288979</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>367292</v>
+        <v>366224</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>665158</v>
+        <v>667592</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>319814</v>
+        <v>322236</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>402807</v>
+        <v>402173</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>714756</v>
+        <v>714433</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>691058</v>
+        <v>689631</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>737420</v>
+        <v>736718</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1445351</v>
+        <v>1442729</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>740128</v>
+        <v>739002</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>785872</v>
+        <v>784717</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1516120</v>
+        <v>1512597</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>728415</v>
+        <v>729303</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>666272</v>
+        <v>665992</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1407034</v>
+        <v>1410772</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>784733</v>
+        <v>784200</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>713673</v>
+        <v>714113</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1483396</v>
+        <v>1484244</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>438153</v>
+        <v>444949</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>373360</v>
+        <v>372719</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>835322</v>
+        <v>830895</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>507512</v>
+        <v>510568</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>425967</v>
+        <v>423537</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>918477</v>
+        <v>918391</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2198821</v>
+        <v>2199487</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2192407</v>
+        <v>2190220</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4415476</v>
+        <v>4418484</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2306519</v>
+        <v>2312837</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2285315</v>
+        <v>2286257</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4559095</v>
+        <v>4569255</v>
       </c>
     </row>
     <row r="24">
